--- a/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
+++ b/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,6 +1340,2571 @@
         <v/>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sub1ex1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>89.02654867256638</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2544134200647629</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8902654867256636</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8818697933639195</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub1ex2</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.482535458887772</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8651917404129794</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8508981788108301</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub1ex3</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>84.95575221238938</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4019873866035292</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8495575221238937</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8456454043178926</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub2ex1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>86.7601795863286</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3729235650816312</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.867601795863286</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8649051668632002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub2ex2</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>86.63716814159292</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3135566614393611</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8663716814159292</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.865257066025333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub2ex3</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>87.34513274336283</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.287326400190553</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8734513274336283</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.871076249547739</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub3ex1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>82.77286135693215</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4829791056744095</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8277286135693215</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8190720178577828</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub3ex2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>89.82300884955752</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4540171038427313</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8776236253648919</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub3ex3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>91.32743362831857</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2812497887794355</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8981472682482696</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub4ex1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>93.83480825958702</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1682310478451352</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9383480825958703</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9382874427084194</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub4ex2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>81.32743362831859</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5163724196647914</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8132743362831858</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7978018786717447</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub4ex3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>91.23893805309734</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2505670238150439</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9093995047010057</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub5ex1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>89.11504424778761</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2638188757002354</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.891150442477876</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8817661245653874</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sub5ex2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>89.14471578473862</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.258013701848904</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8914471578473862</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.8926637789473663</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sub5ex3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>80.56047197640117</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5810162011627047</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8056047197640119</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8055502433565378</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>87.9646017699115</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3804635239638931</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.879646017699115</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.864566905984949</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>94.66076696165192</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1526795046601667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9466076696165192</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9452102191758668</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>88.40707964601771</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3694516411419803</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8840707964601769</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8736450736129534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>90</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2423632383506629</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8962190348890025</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>96.13569321533923</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1181582471511016</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9613569321533924</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9608817632742236</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1656633207933434</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9348532705573789</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>94.18879056047197</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1869300852671434</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9418879056047198</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9377461161528353</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>96.4306784660767</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.08537978552358254</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9643067846607669</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.963733805972106</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>97.37463126843657</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.07881812323636647</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9737463126843657</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9733199127460568</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>94.30678466076697</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1414484660855123</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9430678466076696</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9430375255899843</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>91.38643067846608</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.2235792395978933</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9074280720176258</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>94.12979351032448</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1977322053093909</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9412979351032448</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9387310230545977</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>90.26548672566372</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2691726942585471</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.902654867256637</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8936215337758018</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.2402656610036502</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9088156474348056</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2365499415706533</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9083436768511792</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>95.69321533923303</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1213047115161316</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9569321533923304</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.956746009699418</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>92.97935103244838</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.2342893267532721</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9297935103244838</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9244949988272715</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>95.04424778761062</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1409939534464987</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9504424778761061</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9477313154751712</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>92.92035398230088</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1920524316383914</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9292035398230087</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9261107893363031</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>87.58112094395281</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3574443715592982</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8758112094395279</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8643689938715102</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1892089599413642</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9323895705398128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>92.77286135693215</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.2406325114701758</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9277286135693215</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.925479309913538</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>91.62241887905604</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2202979734171095</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9162241887905604</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9129059049255023</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>93.1268436578171</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.2286232275044313</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9312684365781712</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9276089613501087</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>93.80530973451327</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1538213235917889</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9380530973451326</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9381792757780305</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>85.22123893805311</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4427618153655203</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8522123893805309</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.843711543136252</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>83.80530973451327</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5523331495389963</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8380530973451327</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8224854876445734</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>98.28908554572271</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.05284413361923725</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9828908554572271</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9829229777245001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>97.64011799410029</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.05544916574508534</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.976401179941003</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9767082498812256</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>98.02359882005899</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.05917651199110121</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.98023598820059</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9800050690311382</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sub1ex1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>88.46607669616519</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3153351535753851</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.884660766961652</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8653853312734073</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>sub1ex2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>87.84660766961652</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4637930109185012</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8784660766961652</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.860810514745239</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sub1ex3</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>84.57227138643069</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4692702783659722</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8457227138643069</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8356164113587135</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sub2ex1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>88.73242848121524</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.2987599699175917</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8873242848121524</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.8855177044682806</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sub2ex2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>83.1858407079646</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4654086574046232</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.831858407079646</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8205244741551472</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sub2ex3</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>88.11209439528024</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2780543063941877</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8811209439528025</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8784535830549508</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sub3ex1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>82.71386430678466</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4665998464964408</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8271386430678467</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8225133736156177</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sub3ex2</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>89.58702064896755</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.3816285981767578</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8958702064896755</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8788699311246118</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sub3ex3</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>90.47197640117994</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3132937445550245</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9047197640117994</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8929170018376066</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub4ex1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>94.12979351032449</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1668317850591848</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9412979351032449</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9414819613994204</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sub4ex2</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>80.7669616519174</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5472297177281386</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.8076696165191741</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7915962955697508</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sub4ex3</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>90</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2926238884218037</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8957296079273889</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sub5ex1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.2630419774136196</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.8964601769911505</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.885626312251772</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sub5ex2</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>91.29828112699937</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2292225536317953</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9129828112699936</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9144366854015281</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sub5ex3</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>82.094395280236</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5280263819331594</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.82094395280236</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.818491777854723</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>90</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3366784628357588</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8852416229187696</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>93.1268436578171</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1955862334788738</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9312684365781712</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9290072897510955</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>86.07669616519175</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.428886451369423</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8607669616519175</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8500689069158696</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>90.23598820058997</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2549234395589641</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9023598820058997</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8969829807266432</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>95.51622418879056</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1300364177383017</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9551622418879055</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9545126829242492</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>94.04129793510324</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.158049227357454</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9404129793510325</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.940639922748845</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>93.77581120943952</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1515982261230723</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9377581120943953</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.9344809232535056</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1048204517090198</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9576575213812705</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>96.13569321533923</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1000375267715451</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9613569321533924</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9597690968185869</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>94.36578171091445</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1540731484192899</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9436578171091445</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.9411530724189415</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.2173339545530325</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9090636575723938</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.2069445002819217</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9296559608012063</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>89.79351032448378</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2642277501630209</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.8979351032448377</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.8906856665738928</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.2083521207978871</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9162710907087549</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.2364772406396999</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.9076406480654121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>93.09734513274336</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.194770435159929</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9309734513274336</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.9300799728022875</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>92.62536873156343</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.3042063021281744</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9262536873156343</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9130586007923871</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1941654849456124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.9207492069283159</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.2191521658585164</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.9181434649458818</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.3431694298310807</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.858702064896755</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8486030264429061</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>92.97935103244838</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1931106779132582</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9297935103244838</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.9263524393507806</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.265512037712809</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.907627184849235</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>92.71386430678466</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1983519727208962</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9271386430678467</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9251338294602165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>92.97935103244838</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.2302011687890627</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9297935103244838</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.9206217504449883</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>93.42182890855457</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.1514277308271024</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9342182890855456</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.9332839973834555</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>85.81120943952803</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4151037803424212</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8581120943952802</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.8509126991083965</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>82.94985250737463</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5306652011116967</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8294985250737463</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.815802596031037</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>97.61061946902655</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.07029467512710805</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.9761061946902656</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9761378843434871</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>97.55162241887906</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0617443224034408</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9755162241887906</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.9760503238922867</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>97.1976401179941</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.07771877849206703</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.9719764011799409</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.9708109251014735</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sub1ex1</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>91.00294985250737</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2397726133504572</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9100294985250738</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.9091030290828475</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>sub1ex2</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>86.40117994100295</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4123380499600898</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.8640117994100296</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.8554478135832102</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sub1ex3</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>84.60228894713622</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4251873078562009</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.8460228894713622</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8429961630255191</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>sub2ex1</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>81.90797498248256</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4692135938482048</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.8190797498248255</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8123502446951282</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>sub2ex2</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>85.72271386430678</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3772821214583625</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.8572271386430679</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.8494486549308711</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>sub2ex3</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>88.46607669616519</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2676381409003322</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.884660766961652</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.880742710848098</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sub3ex1</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>83.89380530973452</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4533032217198828</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.8389380530973451</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.8352633641897164</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>sub3ex2</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>89.49852507374632</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4519895943485608</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.8949852507374632</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.8792727540947904</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>sub3ex3</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>91.09144542772862</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.2514701136814741</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9109144542772862</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9037191926349252</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>sub4ex1</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>94.07079646017698</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1581680247327313</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.94070796460177</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.9408246153269246</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>sub4ex2</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>80.11799410029498</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6250414581649238</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.8011799410029499</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.7835101853775862</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>sub4ex3</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>88.82005899705015</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.3153047103667632</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.8882005899705014</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.8872815202504805</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>sub5ex1</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>90.85545722713864</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.2174170259871365</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9085545722713864</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.8982016411112268</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>sub5ex2</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>91.47492625368731</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.2026185305928569</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9147492625368731</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.9163163053328013</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>sub5ex3</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>82.8023598820059</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4746397767257198</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.8280235988200589</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8246917021092456</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>89.5575221238938</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.3472070528604188</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.8955752212389381</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.880025045100067</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>94.63126843657817</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1603281323584573</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9463126843657816</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.9446898112863558</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>88.37758112094396</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4256541701382958</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.8837758112094395</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8672051266815582</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>90.50147492625369</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.2386429282419461</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9050147492625369</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.9029897889840026</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>95.01474926253687</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1413162856013514</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.9501474926253687</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.9489270923464123</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>91.59292035398229</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.2061607450596057</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.9159292035398231</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.9162408989198161</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>94.04129793510324</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1407744186195487</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9404129793510325</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.9381427328753009</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>96.75516224188792</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.07862301906958843</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.967551622418879</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.9672271965539109</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>96.69616519174041</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.09317715849673883</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.9662380284246043</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>94.51327433628319</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.136992310303746</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.9451327433628318</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.9424093661898851</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>91.71091445427729</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2126134304552882</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9171091445427729</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.9112835960332161</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>94.18879056047197</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1676351562253937</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9418879056047198</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.9397930852165766</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>89.97050147492625</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2694637683266289</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.8997050147492626</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.8953712394451768</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>92.47787610619469</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.1991924544544114</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.9214527066393157</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2526068789719526</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8965060296654549</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>95.48672566371681</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1213573154450084</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.9548672566371682</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9548563973018055</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.2636398789010305</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9321533923303835</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.9232827732650277</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>95.72271386430678</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1219281711062649</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.9572271386430679</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9553447329550184</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2277558190978501</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.9089768760815332</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>85.42772861356931</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4095440212418907</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.8542772861356932</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8398261454419547</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.1775546995430583</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.9348673843647088</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>91.53392330383481</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.2196907795664932</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.9153392330383481</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.9151215465873758</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.1971031218505232</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.9213925867488904</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>93.00884955752213</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.2013163693074603</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9300884955752213</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.9246935780322154</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.1477501483142987</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.9370859209588188</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>85.28023598820059</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.447989586010226</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.8528023598820059</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.8418758004567144</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>84.42477876106196</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6073949657244764</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.8442477876106194</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8302576094212648</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>97.99410029498526</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.06368711518110028</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9799410029498524</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.9799646959392841</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>97.81710914454277</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.06914732676674855</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9781710914454278</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9784856804816224</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.122284428108469</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.956047197640118</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9512749776455586</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
+++ b/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D6D2C-D300-46F5-83A6-810B7B508591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1202FC-6506-452F-8D53-9F28465689A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="720" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Identifier</t>
   </si>
@@ -46,96 +46,6 @@
   </si>
   <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>sub1ex1</t>
-  </si>
-  <si>
-    <t>sub1ex2</t>
-  </si>
-  <si>
-    <t>sub1ex3</t>
-  </si>
-  <si>
-    <t>sub2ex1</t>
-  </si>
-  <si>
-    <t>sub2ex2</t>
-  </si>
-  <si>
-    <t>sub2ex3</t>
-  </si>
-  <si>
-    <t>sub3ex1</t>
-  </si>
-  <si>
-    <t>sub3ex2</t>
-  </si>
-  <si>
-    <t>sub3ex3</t>
-  </si>
-  <si>
-    <t>sub4ex1</t>
-  </si>
-  <si>
-    <t>sub4ex2</t>
-  </si>
-  <si>
-    <t>sub4ex3</t>
-  </si>
-  <si>
-    <t>sub5ex1</t>
-  </si>
-  <si>
-    <t>sub5ex2</t>
-  </si>
-  <si>
-    <t>sub5ex3</t>
-  </si>
-  <si>
-    <t>sub6ex1</t>
-  </si>
-  <si>
-    <t>sub6ex2</t>
-  </si>
-  <si>
-    <t>sub6ex3</t>
-  </si>
-  <si>
-    <t>sub7ex1</t>
-  </si>
-  <si>
-    <t>sub7ex2</t>
-  </si>
-  <si>
-    <t>sub7ex3</t>
-  </si>
-  <si>
-    <t>sub8ex1</t>
-  </si>
-  <si>
-    <t>sub8ex2</t>
-  </si>
-  <si>
-    <t>sub8ex3</t>
-  </si>
-  <si>
-    <t>sub9ex1</t>
-  </si>
-  <si>
-    <t>sub9ex2</t>
-  </si>
-  <si>
-    <t>sub9ex3</t>
-  </si>
-  <si>
-    <t>sub10ex1</t>
-  </si>
-  <si>
-    <t>sub10ex2</t>
-  </si>
-  <si>
-    <t>sub10ex3</t>
   </si>
   <si>
     <t>sub11ex1</t>
@@ -199,7 +109,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -552,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,16 +489,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>88.554572271386434</v>
+        <v>93.982300884955748</v>
       </c>
       <c r="C2">
-        <v>0.35326103092374977</v>
+        <v>0.14670433532761909</v>
       </c>
       <c r="D2">
-        <v>0.88554572271386434</v>
+        <v>0.9398230088495575</v>
       </c>
       <c r="E2">
-        <v>0.86692863978962242</v>
+        <v>0.93914546870556048</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -597,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>86.873156342182895</v>
+        <v>94.542945873234203</v>
       </c>
       <c r="C3">
-        <v>0.41928562394508229</v>
+        <v>0.18159442049951621</v>
       </c>
       <c r="D3">
-        <v>0.86873156342182889</v>
+        <v>0.94542945873234197</v>
       </c>
       <c r="E3">
-        <v>0.85275525855736267</v>
+        <v>0.94247720268404755</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -614,16 +523,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>85.280235988200587</v>
+        <v>96.902654867256643</v>
       </c>
       <c r="C4">
-        <v>0.38618095634252919</v>
+        <v>0.1083423967389535</v>
       </c>
       <c r="D4">
-        <v>0.85280235988200592</v>
+        <v>0.96902654867256643</v>
       </c>
       <c r="E4">
-        <v>0.85138081984789304</v>
+        <v>0.96856663329536641</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -631,16 +540,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>84.368549900950697</v>
+        <v>92.920353982300895</v>
       </c>
       <c r="C5">
-        <v>0.39879746012641892</v>
+        <v>0.1869650378522541</v>
       </c>
       <c r="D5">
-        <v>0.84368549900950707</v>
+        <v>0.92920353982300896</v>
       </c>
       <c r="E5">
-        <v>0.83437892337179298</v>
+        <v>0.92722925601990391</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -648,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>88.17109144542772</v>
+        <v>87.374631268436573</v>
       </c>
       <c r="C6">
-        <v>0.29766463622351391</v>
+        <v>0.3214382000165642</v>
       </c>
       <c r="D6">
-        <v>0.88171091445427729</v>
+        <v>0.87374631268436576</v>
       </c>
       <c r="E6">
-        <v>0.87743246666546937</v>
+        <v>0.86561543910902539</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -665,16 +574,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>91.121116964679615</v>
+        <v>92.478049118071951</v>
       </c>
       <c r="C7">
-        <v>0.22793870901417301</v>
+        <v>0.20875054478140859</v>
       </c>
       <c r="D7">
-        <v>0.91121116964679627</v>
+        <v>0.92478049118071959</v>
       </c>
       <c r="E7">
-        <v>0.90883711354236829</v>
+        <v>0.92019046547402694</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -682,16 +591,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>83.628318584070797</v>
+        <v>92.477876106194685</v>
       </c>
       <c r="C8">
-        <v>0.44863181371862682</v>
+        <v>0.19014394578734939</v>
       </c>
       <c r="D8">
-        <v>0.83628318584070804</v>
+        <v>0.9247787610619469</v>
       </c>
       <c r="E8">
-        <v>0.83220725438834575</v>
+        <v>0.92346496850310089</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -699,16 +608,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>88.230261507452482</v>
+        <v>92.212562392408245</v>
       </c>
       <c r="C9">
-        <v>0.4256664070731252</v>
+        <v>0.1871769473337736</v>
       </c>
       <c r="D9">
-        <v>0.88230261507452501</v>
+        <v>0.92212562392408226</v>
       </c>
       <c r="E9">
-        <v>0.86709973917502903</v>
+        <v>0.92129369704302633</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -716,16 +625,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>90.029498525073748</v>
+        <v>92.507374631268434</v>
       </c>
       <c r="C10">
-        <v>0.36003440189136499</v>
+        <v>0.23137497510785279</v>
       </c>
       <c r="D10">
-        <v>0.90029498525073737</v>
+        <v>0.92507374631268446</v>
       </c>
       <c r="E10">
-        <v>0.88363304001727649</v>
+        <v>0.92107491890113857</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -733,16 +642,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>93.392330383480825</v>
+        <v>91.238938053097343</v>
       </c>
       <c r="C11">
-        <v>0.19681762451073151</v>
+        <v>0.20939176937802889</v>
       </c>
       <c r="D11">
-        <v>0.93392330383480826</v>
+        <v>0.9123893805309734</v>
       </c>
       <c r="E11">
-        <v>0.93439141784287738</v>
+        <v>0.90729461678093715</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -750,16 +659,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>84.896755162241888</v>
+        <v>85.693215339233035</v>
       </c>
       <c r="C12">
-        <v>0.47051392369855111</v>
+        <v>0.43881854664056552</v>
       </c>
       <c r="D12">
-        <v>0.84896755162241888</v>
+        <v>0.85693215339233042</v>
       </c>
       <c r="E12">
-        <v>0.84745699370585681</v>
+        <v>0.84984738640044744</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -767,16 +676,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>89.764011799410042</v>
+        <v>82.153392330383483</v>
       </c>
       <c r="C13">
-        <v>0.28887373639348268</v>
+        <v>0.53650246214043973</v>
       </c>
       <c r="D13">
-        <v>0.89764011799410037</v>
+        <v>0.82153392330383479</v>
       </c>
       <c r="E13">
-        <v>0.8977542394893302</v>
+        <v>0.81066916831983771</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -784,16 +693,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>88.34808259587021</v>
+        <v>98.554572271386434</v>
       </c>
       <c r="C14">
-        <v>0.32953082907673281</v>
+        <v>4.8502026095233457E-2</v>
       </c>
       <c r="D14">
-        <v>0.88348082595870214</v>
+        <v>0.98554572271386431</v>
       </c>
       <c r="E14">
-        <v>0.87497992612503617</v>
+        <v>0.98553695094777427</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -801,16 +710,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>90.531146463204692</v>
+        <v>99.115044247787608</v>
       </c>
       <c r="C15">
-        <v>0.2213180520077003</v>
+        <v>2.7576634288584499E-2</v>
       </c>
       <c r="D15">
-        <v>0.90531146463204704</v>
+        <v>0.99115044247787609</v>
       </c>
       <c r="E15">
-        <v>0.90752858971222206</v>
+        <v>0.99120250759258055</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -818,532 +727,283 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>79.233038348082601</v>
+        <v>93.834808259587021</v>
       </c>
       <c r="C16">
-        <v>0.80154951249851369</v>
+        <v>0.1912035601643349</v>
       </c>
       <c r="D16">
-        <v>0.79233038348082596</v>
+        <v>0.93834808259587033</v>
       </c>
       <c r="E16">
-        <v>0.79162180438667129</v>
+        <v>0.9296873540068642</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
       <c r="B17">
-        <v>89.203539823008853</v>
-      </c>
-      <c r="C17">
-        <v>0.38286918057098468</v>
-      </c>
-      <c r="D17">
-        <v>0.89203539823008848</v>
-      </c>
-      <c r="E17">
-        <v>0.87103927927042635</v>
+        <f>AVERAGE(B2:B16)</f>
+        <v>92.399247975040154</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>94.601769911504419</v>
+        <v>95.250737463126853</v>
       </c>
       <c r="C18">
-        <v>0.17137876817072689</v>
+        <v>0.13441339912569669</v>
       </c>
       <c r="D18">
-        <v>0.94601769911504419</v>
+        <v>0.95250737463126856</v>
       </c>
       <c r="E18">
-        <v>0.94428069313333451</v>
+        <v>0.95087349885114192</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>87.256637168141594</v>
+        <v>93.569321533923301</v>
       </c>
       <c r="C19">
-        <v>0.43802874519654622</v>
+        <v>0.24152910275813419</v>
       </c>
       <c r="D19">
-        <v>0.87256637168141593</v>
+        <v>0.935693215339233</v>
       </c>
       <c r="E19">
-        <v>0.86322067299108807</v>
+        <v>0.92939535259099182</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>88.967724634296147</v>
+        <v>96.607669616519175</v>
       </c>
       <c r="C20">
-        <v>0.25941749858975532</v>
+        <v>0.1041635718723531</v>
       </c>
       <c r="D20">
-        <v>0.88967724634296153</v>
+        <v>0.96607669616519176</v>
       </c>
       <c r="E20">
-        <v>0.88686286386051094</v>
+        <v>0.96466985597646049</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>95.103244837758112</v>
+        <v>89.852507374631273</v>
       </c>
       <c r="C21">
-        <v>0.1443160355440341</v>
+        <v>0.29755929920371882</v>
       </c>
       <c r="D21">
-        <v>0.95103244837758116</v>
+        <v>0.89852507374631263</v>
       </c>
       <c r="E21">
-        <v>0.94986746084667106</v>
+        <v>0.89172101889783861</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>91.887905604719762</v>
+        <v>85.073746312684364</v>
       </c>
       <c r="C22">
-        <v>0.20633229247760029</v>
+        <v>0.44089747631902959</v>
       </c>
       <c r="D22">
-        <v>0.91887905604719755</v>
+        <v>0.85073746312684373</v>
       </c>
       <c r="E22">
-        <v>0.91361938970292544</v>
+        <v>0.83702887435828688</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>92.861356932153399</v>
       </c>
       <c r="C23">
-        <v>0.1767571062355576</v>
+        <v>0.16502255818923001</v>
       </c>
       <c r="D23">
         <v>0.92861356932153394</v>
       </c>
       <c r="E23">
-        <v>0.9246411319680069</v>
+        <v>0.92727545892145891</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>94.454277286135692</v>
+        <v>92.831858407079636</v>
       </c>
       <c r="C24">
-        <v>0.13959568696024391</v>
+        <v>0.20451463281521379</v>
       </c>
       <c r="D24">
-        <v>0.94454277286135702</v>
+        <v>0.92831858407079648</v>
       </c>
       <c r="E24">
-        <v>0.94284933567170781</v>
+        <v>0.92344982327469705</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>97.876106194690266</v>
+        <v>91.209958563655391</v>
       </c>
       <c r="C25">
-        <v>6.172148738043385E-2</v>
+        <v>0.26116628454759239</v>
       </c>
       <c r="D25">
-        <v>0.9787610619469026</v>
+        <v>0.91209958563655391</v>
       </c>
       <c r="E25">
-        <v>0.97874499557560912</v>
+        <v>0.90672061823380257</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>93.156342182890853</v>
+        <v>92.920353982300895</v>
       </c>
       <c r="C26">
-        <v>0.2171379771965728</v>
+        <v>0.23234457737392711</v>
       </c>
       <c r="D26">
-        <v>0.93156342182890861</v>
+        <v>0.92920353982300896</v>
       </c>
       <c r="E26">
-        <v>0.92380484062754709</v>
+        <v>0.92617805183349855</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>89.292035398230084</v>
+        <v>91.740412979351021</v>
       </c>
       <c r="C27">
-        <v>0.35198193249034382</v>
+        <v>0.21089314028213271</v>
       </c>
       <c r="D27">
-        <v>0.89292035398230085</v>
+        <v>0.91740412979351027</v>
       </c>
       <c r="E27">
-        <v>0.87891449957418133</v>
+        <v>0.91464600515316907</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>94.542945873234203</v>
+        <v>85.339233038348084</v>
       </c>
       <c r="C28">
-        <v>0.16265774864926549</v>
+        <v>0.46349156662763558</v>
       </c>
       <c r="D28">
-        <v>0.94542945873234197</v>
+        <v>0.85339233038348072</v>
       </c>
       <c r="E28">
-        <v>0.94309469956020331</v>
+        <v>0.85135401150024914</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>89.675516224188783</v>
+        <v>84.365781710914462</v>
       </c>
       <c r="C29">
-        <v>0.25245108668750621</v>
+        <v>0.59080353768367788</v>
       </c>
       <c r="D29">
-        <v>0.89675516224188789</v>
+        <v>0.84365781710914456</v>
       </c>
       <c r="E29">
-        <v>0.89003942819799631</v>
+        <v>0.82862575069816502</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>90.914454277286126</v>
+        <v>98.613569321533916</v>
       </c>
       <c r="C30">
-        <v>0.29151791989182441</v>
+        <v>4.6114662581362612E-2</v>
       </c>
       <c r="D30">
-        <v>0.90914454277286139</v>
+        <v>0.98613569321533912</v>
       </c>
       <c r="E30">
-        <v>0.89882596711003404</v>
+        <v>0.98609755065895022</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>92.448377581120937</v>
+        <v>98.613569321533916</v>
       </c>
       <c r="C31">
-        <v>0.20141015635114551</v>
+        <v>3.6368976118084602E-2</v>
       </c>
       <c r="D31">
-        <v>0.92448377581120944</v>
+        <v>0.98613569321533912</v>
       </c>
       <c r="E31">
-        <v>0.91964200506068039</v>
+        <v>0.98629493278575742</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>93.864306784660769</v>
+        <v>93.628318584070797</v>
       </c>
       <c r="C32">
-        <v>0.15293546574175709</v>
+        <v>0.22379354081762509</v>
       </c>
       <c r="D32">
-        <v>0.93864306784660767</v>
+        <v>0.93628318584070802</v>
       </c>
       <c r="E32">
-        <v>0.93785103275756865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
+        <v>0.92475401112974942</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>93.363004870284342</v>
-      </c>
-      <c r="C33">
-        <v>0.21990707628306161</v>
-      </c>
-      <c r="D33">
-        <v>0.9336300487028435</v>
-      </c>
-      <c r="E33">
-        <v>0.92559967115074393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>96.312684365781706</v>
-      </c>
-      <c r="C34">
-        <v>0.1162829232073212</v>
-      </c>
-      <c r="D34">
-        <v>0.96312684365781709</v>
-      </c>
-      <c r="E34">
-        <v>0.96248764928703356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>91.002949852507371</v>
-      </c>
-      <c r="C35">
-        <v>0.24504514137479419</v>
-      </c>
-      <c r="D35">
-        <v>0.91002949852507375</v>
-      </c>
-      <c r="E35">
-        <v>0.9059642638088361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>86.902654867256643</v>
-      </c>
-      <c r="C36">
-        <v>0.3657693371817004</v>
-      </c>
-      <c r="D36">
-        <v>0.86902654867256646</v>
-      </c>
-      <c r="E36">
-        <v>0.85816746887941486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>92.507374631268434</v>
-      </c>
-      <c r="C37">
-        <v>0.18129250338630901</v>
-      </c>
-      <c r="D37">
-        <v>0.92507374631268446</v>
-      </c>
-      <c r="E37">
-        <v>0.92424834990317528</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>91.179941002949846</v>
-      </c>
-      <c r="C38">
-        <v>0.26821695844652521</v>
-      </c>
-      <c r="D38">
-        <v>0.9117994100294986</v>
-      </c>
-      <c r="E38">
-        <v>0.90678562655271855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>91.858753103400545</v>
-      </c>
-      <c r="C39">
-        <v>0.2225162161745933</v>
-      </c>
-      <c r="D39">
-        <v>0.91858753103400548</v>
-      </c>
-      <c r="E39">
-        <v>0.91836897457321542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>93.687315634218294</v>
-      </c>
-      <c r="C40">
-        <v>0.21156274168218561</v>
-      </c>
-      <c r="D40">
-        <v>0.93687315634218282</v>
-      </c>
-      <c r="E40">
-        <v>0.93259876574043354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>90.825958702064895</v>
-      </c>
-      <c r="C41">
-        <v>0.22506608041173121</v>
-      </c>
-      <c r="D41">
-        <v>0.90825958702064891</v>
-      </c>
-      <c r="E41">
-        <v>0.90479383643661782</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>84.896755162241888</v>
-      </c>
-      <c r="C42">
-        <v>0.48620985013791751</v>
-      </c>
-      <c r="D42">
-        <v>0.84896755162241888</v>
-      </c>
-      <c r="E42">
-        <v>0.84427498505251908</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>81.061946902654867</v>
-      </c>
-      <c r="C43">
-        <v>0.69202555585070513</v>
-      </c>
-      <c r="D43">
-        <v>0.81061946902654858</v>
-      </c>
-      <c r="E43">
-        <v>0.79669077028353075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>98.761061946902657</v>
-      </c>
-      <c r="C44">
-        <v>4.1309756008642277E-2</v>
-      </c>
-      <c r="D44">
-        <v>0.98761061946902662</v>
-      </c>
-      <c r="E44">
-        <v>0.98761873968922553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>98.820058997050154</v>
-      </c>
-      <c r="C45">
-        <v>3.2184370504340143E-2</v>
-      </c>
-      <c r="D45">
-        <v>0.98820058997050142</v>
-      </c>
-      <c r="E45">
-        <v>0.98832137646928186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>94.395280235988196</v>
-      </c>
-      <c r="C46">
-        <v>0.1597192521030526</v>
-      </c>
-      <c r="D46">
-        <v>0.94395280235988199</v>
-      </c>
-      <c r="E46">
-        <v>0.93657412378338056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <f>AVERAGE(B2:B46)</f>
-        <v>90.535654383784532</v>
+        <f>AVERAGE(B18:B32)</f>
+        <v>92.165226342788429</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
+++ b/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,291 @@
         <v>0.9194162377833515</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>93.6283185840708</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1862867406457857</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.936283185840708</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9342205652282972</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2361603505980592</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9315577341933258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>96.28318584070796</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1314375347503301</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9628318584070797</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.960493887834058</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>91.09144542772862</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2409916054718603</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9109144542772862</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9062967188257549</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>88.05309734513274</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3270099876788057</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8805309734513275</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8714332370889025</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1812271524366224</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9242733072346463</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>92.74336283185841</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1987501059590916</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9274336283185841</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9275937390501394</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>92.03557124196576</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.223408942468753</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9203557124196576</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9192571031146478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>94.36578171091445</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.184185864415728</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9436578171091445</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9427644688215301</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>91.15044247787611</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2203781741580315</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.911504424778761</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9089728534714879</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>85.22123893805309</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4491445136845262</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8522123893805309</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8495576723049314</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>84.3952802359882</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6055988775236376</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.843952802359882</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8270765033354414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>99.08554572271387</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.03716378861021544</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9908554572271386</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.990877798208903</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>98.58424380833745</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.03961685368980549</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9858424380833745</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9860552353332086</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>93.1268436578171</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2755190323890986</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9312684365781712</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9172855553992061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
+++ b/results_cnn_evaluation/cnn_validation_CM_PCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC76F6B6-B5E5-4F35-B88B-12AC38F9E345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFD1BF3-B9F8-409D-AEE9-BE5F64676899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>Identifier</t>
   </si>
@@ -91,6 +91,20 @@
   </si>
   <si>
     <t>sub15ex3</t>
+  </si>
+  <si>
+    <t>New Filter</t>
+  </si>
+  <si>
+    <t>Old Filter</t>
+  </si>
+  <si>
+    <t>Below↓: classification based on python feature engineering pipeline and .h5 files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Above↑: classification based on Matlab feature engineering pipeline and .mat files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -154,10 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2012,13 +2033,945 @@
         <v>0.93697495925893826</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B81">
         <f>AVERAGE(B66:B80)</f>
         <v>92.4680547986286</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>95.398230088495581</v>
+      </c>
+      <c r="C86">
+        <v>0.1182071714249711</v>
+      </c>
+      <c r="D86">
+        <v>0.95398230088495573</v>
+      </c>
+      <c r="E86">
+        <v>0.95294446793218324</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>93.657817109144545</v>
+      </c>
+      <c r="C87">
+        <v>0.23988129834378849</v>
+      </c>
+      <c r="D87">
+        <v>0.93657817109144548</v>
+      </c>
+      <c r="E87">
+        <v>0.92827614867184993</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>95.840707964601762</v>
+      </c>
+      <c r="C88">
+        <v>0.15047122699725149</v>
+      </c>
+      <c r="D88">
+        <v>0.95840707964601768</v>
+      </c>
+      <c r="E88">
+        <v>0.95474622593696556</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>93.539823008849552</v>
+      </c>
+      <c r="C89">
+        <v>0.16033073575132831</v>
+      </c>
+      <c r="D89">
+        <v>0.93539823008849565</v>
+      </c>
+      <c r="E89">
+        <v>0.93298807020281005</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>87.227138643067846</v>
+      </c>
+      <c r="C90">
+        <v>0.34742587065168973</v>
+      </c>
+      <c r="D90">
+        <v>0.87227138643067847</v>
+      </c>
+      <c r="E90">
+        <v>0.86202724455740876</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>93.30383480825958</v>
+      </c>
+      <c r="C91">
+        <v>0.1898477780106381</v>
+      </c>
+      <c r="D91">
+        <v>0.93303834808259578</v>
+      </c>
+      <c r="E91">
+        <v>0.92267170288544098</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>93.156342182890853</v>
+      </c>
+      <c r="C92">
+        <v>0.20701863403107079</v>
+      </c>
+      <c r="D92">
+        <v>0.93156342182890861</v>
+      </c>
+      <c r="E92">
+        <v>0.92465268558973612</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>93.864306784660769</v>
+      </c>
+      <c r="C93">
+        <v>0.17720825664912351</v>
+      </c>
+      <c r="D93">
+        <v>0.93864306784660767</v>
+      </c>
+      <c r="E93">
+        <v>0.93581991004388754</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>94.837758112094406</v>
+      </c>
+      <c r="C94">
+        <v>0.2223100994810617</v>
+      </c>
+      <c r="D94">
+        <v>0.94837758112094406</v>
+      </c>
+      <c r="E94">
+        <v>0.94347413748324715</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>90.176991150442475</v>
+      </c>
+      <c r="C95">
+        <v>0.25303662299179452</v>
+      </c>
+      <c r="D95">
+        <v>0.90176991150442487</v>
+      </c>
+      <c r="E95">
+        <v>0.89280313532279365</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>85.221238938053105</v>
+      </c>
+      <c r="C96">
+        <v>0.51976175087139231</v>
+      </c>
+      <c r="D96">
+        <v>0.8522123893805309</v>
+      </c>
+      <c r="E96">
+        <v>0.84394231049343316</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>85.781883926331545</v>
+      </c>
+      <c r="C97">
+        <v>0.60190559513284825</v>
+      </c>
+      <c r="D97">
+        <v>0.85781883926331548</v>
+      </c>
+      <c r="E97">
+        <v>0.84209183315853642</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>99.410029498525063</v>
+      </c>
+      <c r="C98">
+        <v>2.6234977928515941E-2</v>
+      </c>
+      <c r="D98">
+        <v>0.99410029498525065</v>
+      </c>
+      <c r="E98">
+        <v>0.99410718164237244</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>99.557522123893804</v>
+      </c>
+      <c r="C99">
+        <v>1.03202149433836E-2</v>
+      </c>
+      <c r="D99">
+        <v>0.99557522123893816</v>
+      </c>
+      <c r="E99">
+        <v>0.99559263351627314</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100">
+        <v>94.749262536873147</v>
+      </c>
+      <c r="C100">
+        <v>0.1895233858455081</v>
+      </c>
+      <c r="D100">
+        <v>0.94749262536873169</v>
+      </c>
+      <c r="E100">
+        <v>0.93922225142497717</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <f>AVERAGE(B86:B100)</f>
+        <v>93.048192458412288</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>65.347883632211364</v>
+      </c>
+      <c r="C102">
+        <v>1.0815404819208201</v>
+      </c>
+      <c r="D102">
+        <v>0.65347883632211345</v>
+      </c>
+      <c r="E102">
+        <v>0.65346094222397189</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>72.59621623024421</v>
+      </c>
+      <c r="C103">
+        <v>0.82441259125868471</v>
+      </c>
+      <c r="D103">
+        <v>0.72596216230244204</v>
+      </c>
+      <c r="E103">
+        <v>0.70680485934103687</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>65.517954307563215</v>
+      </c>
+      <c r="C104">
+        <v>0.97240999505544701</v>
+      </c>
+      <c r="D104">
+        <v>0.6551795430756322</v>
+      </c>
+      <c r="E104">
+        <v>0.66102238646210076</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>69.82300884955751</v>
+      </c>
+      <c r="C105">
+        <v>0.91340761109022428</v>
+      </c>
+      <c r="D105">
+        <v>0.69823008849557522</v>
+      </c>
+      <c r="E105">
+        <v>0.69385814871155327</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>74.279881313852201</v>
+      </c>
+      <c r="C106">
+        <v>0.80784076613684497</v>
+      </c>
+      <c r="D106">
+        <v>0.74279881313852203</v>
+      </c>
+      <c r="E106">
+        <v>0.71937130943701733</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>65.162760923537405</v>
+      </c>
+      <c r="C107">
+        <v>1.074780930578709</v>
+      </c>
+      <c r="D107">
+        <v>0.65162760923537399</v>
+      </c>
+      <c r="E107">
+        <v>0.6542965620628699</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>71.592920353982294</v>
+      </c>
+      <c r="C108">
+        <v>1.0277315625688059</v>
+      </c>
+      <c r="D108">
+        <v>0.71592920353982303</v>
+      </c>
+      <c r="E108">
+        <v>0.70145601583331207</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>73.778233375721243</v>
+      </c>
+      <c r="C109">
+        <v>0.95245402440583948</v>
+      </c>
+      <c r="D109">
+        <v>0.73778233375721247</v>
+      </c>
+      <c r="E109">
+        <v>0.70308230087325863</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>66.314587496431628</v>
+      </c>
+      <c r="C110">
+        <v>0.97946599169323834</v>
+      </c>
+      <c r="D110">
+        <v>0.66314587496431632</v>
+      </c>
+      <c r="E110">
+        <v>0.66870063038144467</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <v>69.233038348082601</v>
+      </c>
+      <c r="C111">
+        <v>0.94146728638443167</v>
+      </c>
+      <c r="D111">
+        <v>0.69233038348082598</v>
+      </c>
+      <c r="E111">
+        <v>0.68717251033336968</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>73.305045891400454</v>
+      </c>
+      <c r="C112">
+        <v>0.79871906853901842</v>
+      </c>
+      <c r="D112">
+        <v>0.73305045891400444</v>
+      </c>
+      <c r="E112">
+        <v>0.70984059586499104</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>65.605411811520867</v>
+      </c>
+      <c r="C113">
+        <v>1.044211712603768</v>
+      </c>
+      <c r="D113">
+        <v>0.65605411811520864</v>
+      </c>
+      <c r="E113">
+        <v>0.65692250844001743</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>69.233557383714384</v>
+      </c>
+      <c r="C114">
+        <v>0.96706207593282056</v>
+      </c>
+      <c r="D114">
+        <v>0.69233557383714395</v>
+      </c>
+      <c r="E114">
+        <v>0.67623617925701573</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>76.698760369899389</v>
+      </c>
+      <c r="C115">
+        <v>0.86861606885989517</v>
+      </c>
+      <c r="D115">
+        <v>0.76698760369899399</v>
+      </c>
+      <c r="E115">
+        <v>0.7432389725520796</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>64.663016116056369</v>
+      </c>
+      <c r="C116">
+        <v>1.089722064261635</v>
+      </c>
+      <c r="D116">
+        <v>0.64663016116056371</v>
+      </c>
+      <c r="E116">
+        <v>0.647597250919698</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B117">
+        <f>AVERAGE(B102:B116)</f>
+        <v>69.543485093585005</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>97.315634218289091</v>
+      </c>
+      <c r="C118">
+        <v>6.746853273471061E-2</v>
+      </c>
+      <c r="D118">
+        <v>0.97315634218289093</v>
+      </c>
+      <c r="E118">
+        <v>0.9731755541423126</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>92.330556492703224</v>
+      </c>
+      <c r="C119">
+        <v>0.36150790326480642</v>
+      </c>
+      <c r="D119">
+        <v>0.92330556492703231</v>
+      </c>
+      <c r="E119">
+        <v>0.90934137083846411</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>96.401179941002937</v>
+      </c>
+      <c r="C120">
+        <v>0.1208214745980513</v>
+      </c>
+      <c r="D120">
+        <v>0.96401179941002957</v>
+      </c>
+      <c r="E120">
+        <v>0.96191442424745033</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>93.598820058997049</v>
+      </c>
+      <c r="C121">
+        <v>0.17562568111049279</v>
+      </c>
+      <c r="D121">
+        <v>0.93598820058997045</v>
+      </c>
+      <c r="E121">
+        <v>0.93332522913087335</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>85.90022405038107</v>
+      </c>
+      <c r="C122">
+        <v>0.38586949314849328</v>
+      </c>
+      <c r="D122">
+        <v>0.85900224050381058</v>
+      </c>
+      <c r="E122">
+        <v>0.84471646122876032</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="C123">
+        <v>0.12563056298871139</v>
+      </c>
+      <c r="D123">
+        <v>0.94867256637168151</v>
+      </c>
+      <c r="E123">
+        <v>0.94807715061567177</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="C124">
+        <v>0.18778429288116361</v>
+      </c>
+      <c r="D124">
+        <v>0.92271386430678459</v>
+      </c>
+      <c r="E124">
+        <v>0.92299593855227113</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>94.188963572349252</v>
+      </c>
+      <c r="C125">
+        <v>0.1773061827653995</v>
+      </c>
+      <c r="D125">
+        <v>0.94188963572349249</v>
+      </c>
+      <c r="E125">
+        <v>0.93879138593962597</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>95.398230088495581</v>
+      </c>
+      <c r="C126">
+        <v>0.1820259768058349</v>
+      </c>
+      <c r="D126">
+        <v>0.95398230088495573</v>
+      </c>
+      <c r="E126">
+        <v>0.95174403205548008</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>90.914454277286126</v>
+      </c>
+      <c r="C127">
+        <v>0.23665222076853451</v>
+      </c>
+      <c r="D127">
+        <v>0.90914454277286139</v>
+      </c>
+      <c r="E127">
+        <v>0.89855611726120088</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>86.224188790560476</v>
+      </c>
+      <c r="C128">
+        <v>0.52897519317290664</v>
+      </c>
+      <c r="D128">
+        <v>0.86224188790560474</v>
+      </c>
+      <c r="E128">
+        <v>0.85363726286891894</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>83.834981271464287</v>
+      </c>
+      <c r="C129">
+        <v>0.59440061059237148</v>
+      </c>
+      <c r="D129">
+        <v>0.83834981271464282</v>
+      </c>
+      <c r="E129">
+        <v>0.82452208317417264</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>99.233038348082601</v>
+      </c>
+      <c r="C130">
+        <v>3.0326701290069501E-2</v>
+      </c>
+      <c r="D130">
+        <v>0.99233038348082592</v>
+      </c>
+      <c r="E130">
+        <v>0.99233892173997629</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131">
+        <v>99.498525073746322</v>
+      </c>
+      <c r="C131">
+        <v>1.337316055398219E-2</v>
+      </c>
+      <c r="D131">
+        <v>0.99498525073746313</v>
+      </c>
+      <c r="E131">
+        <v>0.99499204437487021</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>95.752212389380531</v>
+      </c>
+      <c r="C132">
+        <v>0.11621230035273319</v>
+      </c>
+      <c r="D132">
+        <v>0.9575221238938052</v>
+      </c>
+      <c r="E132">
+        <v>0.95356777086046451</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B133">
+        <f>AVERAGE(B118:B132)</f>
+        <v>93.181976776039008</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A82:G83"/>
+    <mergeCell ref="F86:G101"/>
+    <mergeCell ref="F102:G117"/>
+    <mergeCell ref="F118:G133"/>
+    <mergeCell ref="A84:G85"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
